--- a/knowledge-base/trunk/data/PharmGKB/haplotype_spreadsheet_vAuto.xlsx
+++ b/knowledge-base/trunk/data/PharmGKB/haplotype_spreadsheet_vAuto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="585" windowWidth="11415" windowHeight="2775" tabRatio="604" firstSheet="3" activeTab="19"/>
+    <workbookView xWindow="270" yWindow="600" windowWidth="28215" windowHeight="12465" tabRatio="639"/>
   </bookViews>
   <sheets>
     <sheet name="ABCB1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9941" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9876" uniqueCount="503">
   <si>
     <t>status</t>
   </si>
@@ -1513,7 +1513,7 @@
     <t>VKORC1</t>
   </si>
   <si>
-    <t xml:space="preserve"> [tag]</t>
+    <t xml:space="preserve"> del [tag]</t>
   </si>
   <si>
     <t>H4</t>
@@ -1607,7 +1607,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1904,10 +1904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1917,8 +1917,6 @@
     <col min="4" max="4" width="40.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" style="1" customWidth="1"/>
     <col min="6" max="10" width="9.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="31.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2100,9 +2098,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:AK1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -2113,7 +2113,6 @@
     <col min="7" max="9" width="10.5703125" style="1" customWidth="1"/>
     <col min="10" max="12" width="9.5703125" style="1" customWidth="1"/>
     <col min="13" max="14" width="10.5703125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -2607,9 +2606,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:AQ1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -2620,7 +2621,6 @@
     <col min="8" max="8" width="9.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" style="1" customWidth="1"/>
     <col min="10" max="16" width="9.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -3803,9 +3803,6 @@
       </c>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B25" s="1" t="s">
         <v>342</v>
       </c>
@@ -4129,9 +4126,6 @@
       </c>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B32" s="1" t="s">
         <v>342</v>
       </c>
@@ -4176,9 +4170,6 @@
       </c>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B33" s="1" t="s">
         <v>342</v>
       </c>
@@ -4511,9 +4502,6 @@
       </c>
     </row>
     <row r="40" spans="1:16">
-      <c r="A40" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B40" s="1" t="s">
         <v>342</v>
       </c>
@@ -4602,9 +4590,6 @@
       </c>
     </row>
     <row r="42" spans="1:16">
-      <c r="A42" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B42" s="1" t="s">
         <v>342</v>
       </c>
@@ -4652,9 +4637,6 @@
       </c>
     </row>
     <row r="43" spans="1:16">
-      <c r="A43" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B43" s="1" t="s">
         <v>342</v>
       </c>
@@ -4702,9 +4684,6 @@
       </c>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B44" s="1" t="s">
         <v>342</v>
       </c>
@@ -4803,9 +4782,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:AE1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -4815,7 +4796,6 @@
     <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
     <col min="6" max="12" width="9.5703125" style="1" customWidth="1"/>
     <col min="13" max="18" width="10.5703125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -5184,9 +5164,6 @@
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B8" s="1" t="s">
         <v>364</v>
       </c>
@@ -5237,9 +5214,6 @@
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B9" s="1" t="s">
         <v>364</v>
       </c>
@@ -5290,9 +5264,6 @@
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B10" s="1" t="s">
         <v>364</v>
       </c>
@@ -5396,9 +5367,6 @@
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B12" s="1" t="s">
         <v>364</v>
       </c>
@@ -5452,9 +5420,6 @@
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B13" s="1" t="s">
         <v>364</v>
       </c>
@@ -5505,9 +5470,6 @@
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B14" s="1" t="s">
         <v>364</v>
       </c>
@@ -5558,9 +5520,6 @@
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B15" s="1" t="s">
         <v>364</v>
       </c>
@@ -5611,9 +5570,6 @@
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B16" s="1" t="s">
         <v>364</v>
       </c>
@@ -5671,9 +5627,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:AC1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -5682,7 +5640,6 @@
     <col min="4" max="4" width="10" style="1" customWidth="1"/>
     <col min="5" max="8" width="10.5703125" style="1" customWidth="1"/>
     <col min="9" max="15" width="9.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -5822,9 +5779,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:AC1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -5833,7 +5792,6 @@
     <col min="4" max="4" width="10" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" style="1" customWidth="1"/>
     <col min="6" max="8" width="9.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -5910,9 +5868,11 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD35"/>
+  <dimension ref="A1:AC35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1:AZ1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -5926,7 +5886,6 @@
     <col min="15" max="15" width="10.5703125" style="1" customWidth="1"/>
     <col min="16" max="17" width="9.5703125" style="1" customWidth="1"/>
     <col min="18" max="29" width="10.5703125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -7644,6 +7603,9 @@
       <c r="O21" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P21" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="Q21" s="1" t="s">
         <v>47</v>
       </c>
@@ -7724,6 +7686,9 @@
       <c r="O22" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="P22" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="Q22" s="1" t="s">
         <v>47</v>
       </c>
@@ -7804,6 +7769,9 @@
       <c r="O23" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="P23" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="Q23" s="1" t="s">
         <v>47</v>
       </c>
@@ -7884,6 +7852,9 @@
       <c r="O24" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="P24" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="Q24" s="1" t="s">
         <v>47</v>
       </c>
@@ -7964,6 +7935,9 @@
       <c r="O25" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="P25" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="Q25" s="1" t="s">
         <v>47</v>
       </c>
@@ -8044,6 +8018,9 @@
       <c r="O26" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="P26" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="Q26" s="1" t="s">
         <v>47</v>
       </c>
@@ -8124,6 +8101,9 @@
       <c r="O27" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="P27" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="Q27" s="1" t="s">
         <v>47</v>
       </c>
@@ -8204,6 +8184,9 @@
       <c r="O28" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="P28" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="Q28" s="1" t="s">
         <v>47</v>
       </c>
@@ -8284,6 +8267,9 @@
       <c r="O29" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="P29" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="Q29" s="1" t="s">
         <v>47</v>
       </c>
@@ -8364,6 +8350,9 @@
       <c r="O30" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="P30" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="Q30" s="1" t="s">
         <v>47</v>
       </c>
@@ -8444,6 +8433,9 @@
       <c r="O31" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="P31" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="Q31" s="1" t="s">
         <v>47</v>
       </c>
@@ -8524,6 +8516,9 @@
       <c r="O32" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="P32" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="Q32" s="1" t="s">
         <v>47</v>
       </c>
@@ -8604,6 +8599,9 @@
       <c r="O33" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="P33" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="Q33" s="1" t="s">
         <v>47</v>
       </c>
@@ -8684,6 +8682,9 @@
       <c r="O34" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P34" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="Q34" s="1" t="s">
         <v>47</v>
       </c>
@@ -8763,6 +8764,9 @@
       </c>
       <c r="O35" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>47</v>
@@ -8812,10 +8816,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H1" sqref="H1:Z1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -8826,7 +8830,6 @@
     <col min="5" max="5" width="9.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -8907,9 +8910,6 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B5" s="1" t="s">
         <v>412</v>
       </c>
@@ -8934,9 +8934,11 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:W1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -8944,7 +8946,6 @@
     <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" style="1" customWidth="1"/>
     <col min="5" max="8" width="9.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -9014,9 +9015,6 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B4" s="1" t="s">
         <v>417</v>
       </c>
@@ -9118,9 +9116,6 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B8" s="1" t="s">
         <v>417</v>
       </c>
@@ -9666,9 +9661,11 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:AC1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -9678,7 +9675,6 @@
     <col min="5" max="8" width="10.5703125" style="1" customWidth="1"/>
     <col min="9" max="11" width="9.5703125" style="1" customWidth="1"/>
     <col min="12" max="13" width="8.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -9802,9 +9798,6 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B4" s="1" t="s">
         <v>433</v>
       </c>
@@ -9867,6 +9860,9 @@
       <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="I5" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="J5" s="1" t="s">
         <v>28</v>
       </c>
@@ -9881,9 +9877,6 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B6" s="1" t="s">
         <v>433</v>
       </c>
@@ -9922,9 +9915,6 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B7" s="1" t="s">
         <v>433</v>
       </c>
@@ -9963,9 +9953,6 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B8" s="1" t="s">
         <v>433</v>
       </c>
@@ -10004,9 +9991,6 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B9" s="1" t="s">
         <v>433</v>
       </c>
@@ -10045,9 +10029,6 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B10" s="1" t="s">
         <v>433</v>
       </c>
@@ -10086,9 +10067,6 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B11" s="1" t="s">
         <v>433</v>
       </c>
@@ -10127,9 +10105,6 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B12" s="1" t="s">
         <v>433</v>
       </c>
@@ -10168,9 +10143,6 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B13" s="1" t="s">
         <v>433</v>
       </c>
@@ -10209,9 +10181,6 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B14" s="1" t="s">
         <v>433</v>
       </c>
@@ -10250,9 +10219,6 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B15" s="1" t="s">
         <v>433</v>
       </c>
@@ -10291,9 +10257,6 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B16" s="1" t="s">
         <v>433</v>
       </c>
@@ -10677,9 +10640,6 @@
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B26" s="1" t="s">
         <v>433</v>
       </c>
@@ -10715,9 +10675,6 @@
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B27" s="1" t="s">
         <v>433</v>
       </c>
@@ -10867,9 +10824,6 @@
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B31" s="1" t="s">
         <v>433</v>
       </c>
@@ -10905,9 +10859,6 @@
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B32" s="1" t="s">
         <v>433</v>
       </c>
@@ -10942,10 +10893,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="1" t="s">
-        <v>19</v>
-      </c>
+    <row r="33" spans="2:13">
       <c r="B33" s="1" t="s">
         <v>433</v>
       </c>
@@ -10980,10 +10928,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="1" t="s">
-        <v>19</v>
-      </c>
+    <row r="34" spans="2:13">
       <c r="B34" s="1" t="s">
         <v>433</v>
       </c>
@@ -11018,10 +10963,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="1" t="s">
-        <v>19</v>
-      </c>
+    <row r="35" spans="2:13">
       <c r="B35" s="1" t="s">
         <v>433</v>
       </c>
@@ -11056,7 +10998,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="2:13">
       <c r="B36" s="1" t="s">
         <v>433</v>
       </c>
@@ -11091,7 +11033,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="2:13">
       <c r="B37" s="1" t="s">
         <v>433</v>
       </c>
@@ -11126,7 +11068,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="2:13">
       <c r="B38" s="1" t="s">
         <v>433</v>
       </c>
@@ -11161,7 +11103,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="2:13">
       <c r="B39" s="1" t="s">
         <v>433</v>
       </c>
@@ -11196,10 +11138,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="1" t="s">
-        <v>19</v>
-      </c>
+    <row r="40" spans="2:13">
       <c r="B40" s="1" t="s">
         <v>433</v>
       </c>
@@ -11242,9 +11181,11 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:AM1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -11255,7 +11196,6 @@
     <col min="8" max="10" width="9.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
     <col min="12" max="14" width="9.5703125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -11312,11 +11252,20 @@
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>485</v>
+        <v>86</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>12</v>
@@ -11341,11 +11290,26 @@
       <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="I3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="K3" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>17</v>
@@ -11355,9 +11319,6 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B4" s="1" t="s">
         <v>484</v>
       </c>
@@ -11367,12 +11328,27 @@
       <c r="E4" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="H4" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="L4" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="M4" s="1" t="s">
         <v>14</v>
       </c>
@@ -11381,9 +11357,6 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B5" s="1" t="s">
         <v>484</v>
       </c>
@@ -11393,11 +11366,26 @@
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="H5" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="I5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="K5" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>14</v>
@@ -11644,6 +11632,9 @@
       </c>
     </row>
     <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>484</v>
       </c>
@@ -11682,6 +11673,9 @@
       </c>
     </row>
     <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>484</v>
       </c>
@@ -11720,6 +11714,9 @@
       </c>
     </row>
     <row r="14" spans="1:14">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>484</v>
       </c>
@@ -11765,10 +11762,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G1" sqref="G1:AU1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -11777,7 +11774,6 @@
     <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" customWidth="1"/>
     <col min="5" max="6" width="9.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -11853,189 +11849,186 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="9.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="9.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="15.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" style="2" customWidth="1"/>
+    <col min="5" max="6" width="9.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="2" customWidth="1"/>
+    <col min="8" max="9" width="9.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="G4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -12060,10 +12053,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:AX1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -12077,7 +12070,6 @@
     <col min="11" max="15" width="9.5703125" style="1" customWidth="1"/>
     <col min="16" max="17" width="8.5703125" style="1" customWidth="1"/>
     <col min="18" max="20" width="9.5703125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -12765,9 +12757,6 @@
       </c>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B13" s="1" t="s">
         <v>46</v>
       </c>
@@ -13002,7 +12991,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="I1" sqref="I1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -13106,2249 +13095,2214 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y31"/>
+  <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AV1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="11.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.5703125" style="1" customWidth="1"/>
-    <col min="7" max="10" width="9.5703125" style="1" customWidth="1"/>
-    <col min="11" max="23" width="10.5703125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="8.5703125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="9.140625" style="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="10" width="9.5703125" customWidth="1"/>
+    <col min="11" max="23" width="10.5703125" customWidth="1"/>
+    <col min="24" max="24" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>71</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>72</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>73</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>74</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" t="s">
         <v>75</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" t="s">
         <v>76</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" t="s">
         <v>77</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" t="s">
         <v>78</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" t="s">
         <v>79</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:24">
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V2" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="X2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:24">
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X3" s="1" t="s">
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X4" s="1" t="s">
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" t="s">
+        <v>18</v>
+      </c>
+      <c r="W4" t="s">
+        <v>28</v>
+      </c>
+      <c r="X4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="1" t="s">
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R5" t="s">
+        <v>14</v>
+      </c>
+      <c r="S5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T5" t="s">
+        <v>14</v>
+      </c>
+      <c r="U5" t="s">
+        <v>28</v>
+      </c>
+      <c r="V5" t="s">
+        <v>18</v>
+      </c>
+      <c r="W5" t="s">
+        <v>28</v>
+      </c>
+      <c r="X5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>28</v>
+      </c>
+      <c r="R6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S6" t="s">
+        <v>28</v>
+      </c>
+      <c r="T6" t="s">
+        <v>14</v>
+      </c>
+      <c r="U6" t="s">
+        <v>28</v>
+      </c>
+      <c r="V6" t="s">
+        <v>18</v>
+      </c>
+      <c r="W6" t="s">
+        <v>28</v>
+      </c>
+      <c r="X6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>28</v>
+      </c>
+      <c r="R7" t="s">
+        <v>14</v>
+      </c>
+      <c r="S7" t="s">
+        <v>28</v>
+      </c>
+      <c r="T7" t="s">
+        <v>14</v>
+      </c>
+      <c r="U7" t="s">
+        <v>28</v>
+      </c>
+      <c r="V7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B8" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
-      <c r="A6" s="1" t="s">
+      <c r="D8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>28</v>
+      </c>
+      <c r="R8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S8" t="s">
+        <v>28</v>
+      </c>
+      <c r="T8" t="s">
+        <v>14</v>
+      </c>
+      <c r="U8" t="s">
+        <v>28</v>
+      </c>
+      <c r="V8" t="s">
+        <v>18</v>
+      </c>
+      <c r="W8" t="s">
+        <v>28</v>
+      </c>
+      <c r="X8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B9" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="D9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>28</v>
+      </c>
+      <c r="R9" t="s">
+        <v>14</v>
+      </c>
+      <c r="S9" t="s">
+        <v>28</v>
+      </c>
+      <c r="T9" t="s">
+        <v>14</v>
+      </c>
+      <c r="U9" t="s">
+        <v>28</v>
+      </c>
+      <c r="V9" t="s">
+        <v>18</v>
+      </c>
+      <c r="W9" t="s">
+        <v>28</v>
+      </c>
+      <c r="X9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
-      <c r="A7" s="1" t="s">
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>28</v>
+      </c>
+      <c r="R10" t="s">
+        <v>14</v>
+      </c>
+      <c r="S10" t="s">
+        <v>28</v>
+      </c>
+      <c r="T10" t="s">
+        <v>14</v>
+      </c>
+      <c r="U10" t="s">
+        <v>28</v>
+      </c>
+      <c r="V10" t="s">
+        <v>18</v>
+      </c>
+      <c r="W10" t="s">
+        <v>28</v>
+      </c>
+      <c r="X10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B11" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X7" s="1" t="s">
+      <c r="D11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>28</v>
+      </c>
+      <c r="R11" t="s">
+        <v>14</v>
+      </c>
+      <c r="S11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T11" t="s">
+        <v>14</v>
+      </c>
+      <c r="U11" t="s">
+        <v>28</v>
+      </c>
+      <c r="V11" t="s">
+        <v>18</v>
+      </c>
+      <c r="W11" t="s">
+        <v>28</v>
+      </c>
+      <c r="X11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
-      <c r="A8" s="1" t="s">
+    <row r="12" spans="1:24">
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>28</v>
+      </c>
+      <c r="R12" t="s">
+        <v>14</v>
+      </c>
+      <c r="S12" t="s">
+        <v>28</v>
+      </c>
+      <c r="T12" t="s">
+        <v>14</v>
+      </c>
+      <c r="U12" t="s">
+        <v>28</v>
+      </c>
+      <c r="V12" t="s">
+        <v>18</v>
+      </c>
+      <c r="W12" t="s">
+        <v>28</v>
+      </c>
+      <c r="X12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B13" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="D13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" t="s">
+        <v>14</v>
+      </c>
+      <c r="O13" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" t="s">
+        <v>14</v>
+      </c>
+      <c r="S13" t="s">
+        <v>28</v>
+      </c>
+      <c r="T13" t="s">
+        <v>14</v>
+      </c>
+      <c r="U13" t="s">
+        <v>28</v>
+      </c>
+      <c r="V13" t="s">
+        <v>18</v>
+      </c>
+      <c r="W13" t="s">
+        <v>28</v>
+      </c>
+      <c r="X13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" t="s">
+        <v>14</v>
+      </c>
+      <c r="O14" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>28</v>
+      </c>
+      <c r="R14" t="s">
+        <v>14</v>
+      </c>
+      <c r="S14" t="s">
+        <v>28</v>
+      </c>
+      <c r="T14" t="s">
+        <v>14</v>
+      </c>
+      <c r="U14" t="s">
+        <v>28</v>
+      </c>
+      <c r="V14" t="s">
+        <v>17</v>
+      </c>
+      <c r="W14" t="s">
+        <v>28</v>
+      </c>
+      <c r="X14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" t="s">
+        <v>47</v>
+      </c>
+      <c r="M15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R15" t="s">
+        <v>14</v>
+      </c>
+      <c r="S15" t="s">
+        <v>28</v>
+      </c>
+      <c r="T15" t="s">
+        <v>14</v>
+      </c>
+      <c r="U15" t="s">
+        <v>28</v>
+      </c>
+      <c r="V15" t="s">
+        <v>18</v>
+      </c>
+      <c r="W15" t="s">
+        <v>28</v>
+      </c>
+      <c r="X15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" t="s">
+        <v>14</v>
+      </c>
+      <c r="O16" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>28</v>
+      </c>
+      <c r="R16" t="s">
+        <v>14</v>
+      </c>
+      <c r="S16" t="s">
+        <v>28</v>
+      </c>
+      <c r="T16" t="s">
+        <v>14</v>
+      </c>
+      <c r="U16" t="s">
+        <v>28</v>
+      </c>
+      <c r="V16" t="s">
+        <v>18</v>
+      </c>
+      <c r="W16" t="s">
+        <v>28</v>
+      </c>
+      <c r="X16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" t="s">
+        <v>28</v>
+      </c>
+      <c r="N17" t="s">
+        <v>14</v>
+      </c>
+      <c r="O17" t="s">
+        <v>15</v>
+      </c>
+      <c r="P17" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>28</v>
+      </c>
+      <c r="R17" t="s">
+        <v>14</v>
+      </c>
+      <c r="S17" t="s">
+        <v>28</v>
+      </c>
+      <c r="T17" t="s">
+        <v>14</v>
+      </c>
+      <c r="U17" t="s">
+        <v>28</v>
+      </c>
+      <c r="V17" t="s">
+        <v>18</v>
+      </c>
+      <c r="W17" t="s">
+        <v>28</v>
+      </c>
+      <c r="X17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" t="s">
+        <v>47</v>
+      </c>
+      <c r="M18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N18" t="s">
+        <v>14</v>
+      </c>
+      <c r="O18" t="s">
+        <v>28</v>
+      </c>
+      <c r="P18" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>28</v>
+      </c>
+      <c r="R18" t="s">
+        <v>14</v>
+      </c>
+      <c r="S18" t="s">
+        <v>28</v>
+      </c>
+      <c r="T18" t="s">
+        <v>14</v>
+      </c>
+      <c r="U18" t="s">
+        <v>28</v>
+      </c>
+      <c r="V18" t="s">
+        <v>18</v>
+      </c>
+      <c r="W18" t="s">
+        <v>15</v>
+      </c>
+      <c r="X18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" t="s">
+        <v>47</v>
+      </c>
+      <c r="M19" t="s">
+        <v>28</v>
+      </c>
+      <c r="N19" t="s">
+        <v>14</v>
+      </c>
+      <c r="O19" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>28</v>
+      </c>
+      <c r="R19" t="s">
+        <v>14</v>
+      </c>
+      <c r="S19" t="s">
+        <v>28</v>
+      </c>
+      <c r="T19" t="s">
+        <v>14</v>
+      </c>
+      <c r="U19" t="s">
+        <v>28</v>
+      </c>
+      <c r="V19" t="s">
+        <v>18</v>
+      </c>
+      <c r="W19" t="s">
+        <v>28</v>
+      </c>
+      <c r="X19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" t="s">
+        <v>47</v>
+      </c>
+      <c r="M20" t="s">
+        <v>28</v>
+      </c>
+      <c r="N20" t="s">
+        <v>14</v>
+      </c>
+      <c r="O20" t="s">
+        <v>28</v>
+      </c>
+      <c r="P20" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>28</v>
+      </c>
+      <c r="R20" t="s">
+        <v>14</v>
+      </c>
+      <c r="S20" t="s">
+        <v>12</v>
+      </c>
+      <c r="T20" t="s">
+        <v>14</v>
+      </c>
+      <c r="U20" t="s">
+        <v>28</v>
+      </c>
+      <c r="V20" t="s">
+        <v>18</v>
+      </c>
+      <c r="W20" t="s">
+        <v>28</v>
+      </c>
+      <c r="X20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>47</v>
+      </c>
+      <c r="J21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" t="s">
+        <v>47</v>
+      </c>
+      <c r="M21" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21" t="s">
+        <v>14</v>
+      </c>
+      <c r="O21" t="s">
+        <v>28</v>
+      </c>
+      <c r="P21" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>28</v>
+      </c>
+      <c r="R21" t="s">
+        <v>14</v>
+      </c>
+      <c r="S21" t="s">
+        <v>28</v>
+      </c>
+      <c r="T21" t="s">
+        <v>15</v>
+      </c>
+      <c r="U21" t="s">
+        <v>28</v>
+      </c>
+      <c r="V21" t="s">
+        <v>18</v>
+      </c>
+      <c r="W21" t="s">
+        <v>28</v>
+      </c>
+      <c r="X21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" t="s">
+        <v>47</v>
+      </c>
+      <c r="M22" t="s">
+        <v>28</v>
+      </c>
+      <c r="N22" t="s">
+        <v>14</v>
+      </c>
+      <c r="O22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>28</v>
+      </c>
+      <c r="R22" t="s">
+        <v>14</v>
+      </c>
+      <c r="S22" t="s">
+        <v>28</v>
+      </c>
+      <c r="T22" t="s">
+        <v>14</v>
+      </c>
+      <c r="U22" t="s">
+        <v>28</v>
+      </c>
+      <c r="V22" t="s">
+        <v>18</v>
+      </c>
+      <c r="W22" t="s">
+        <v>28</v>
+      </c>
+      <c r="X22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M23" t="s">
+        <v>15</v>
+      </c>
+      <c r="N23" t="s">
+        <v>14</v>
+      </c>
+      <c r="O23" t="s">
+        <v>28</v>
+      </c>
+      <c r="P23" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>28</v>
+      </c>
+      <c r="R23" t="s">
+        <v>14</v>
+      </c>
+      <c r="S23" t="s">
+        <v>28</v>
+      </c>
+      <c r="T23" t="s">
+        <v>14</v>
+      </c>
+      <c r="U23" t="s">
+        <v>28</v>
+      </c>
+      <c r="V23" t="s">
+        <v>18</v>
+      </c>
+      <c r="W23" t="s">
+        <v>28</v>
+      </c>
+      <c r="X23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" t="s">
+        <v>47</v>
+      </c>
+      <c r="M24" t="s">
+        <v>28</v>
+      </c>
+      <c r="N24" t="s">
+        <v>17</v>
+      </c>
+      <c r="O24" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>28</v>
+      </c>
+      <c r="R24" t="s">
+        <v>14</v>
+      </c>
+      <c r="S24" t="s">
+        <v>28</v>
+      </c>
+      <c r="T24" t="s">
+        <v>14</v>
+      </c>
+      <c r="U24" t="s">
+        <v>28</v>
+      </c>
+      <c r="V24" t="s">
+        <v>18</v>
+      </c>
+      <c r="W24" t="s">
+        <v>28</v>
+      </c>
+      <c r="X24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" t="s">
+        <v>47</v>
+      </c>
+      <c r="M25" t="s">
+        <v>28</v>
+      </c>
+      <c r="N25" t="s">
+        <v>14</v>
+      </c>
+      <c r="O25" t="s">
+        <v>28</v>
+      </c>
+      <c r="P25" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>28</v>
+      </c>
+      <c r="R25" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="S25" t="s">
+        <v>28</v>
+      </c>
+      <c r="T25" t="s">
+        <v>14</v>
+      </c>
+      <c r="U25" t="s">
+        <v>28</v>
+      </c>
+      <c r="V25" t="s">
+        <v>18</v>
+      </c>
+      <c r="W25" t="s">
+        <v>28</v>
+      </c>
+      <c r="X25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
-      <c r="A9" s="1" t="s">
+      <c r="J26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" t="s">
+        <v>47</v>
+      </c>
+      <c r="M26" t="s">
+        <v>28</v>
+      </c>
+      <c r="N26" t="s">
+        <v>14</v>
+      </c>
+      <c r="O26" t="s">
+        <v>28</v>
+      </c>
+      <c r="P26" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>28</v>
+      </c>
+      <c r="R26" t="s">
+        <v>14</v>
+      </c>
+      <c r="S26" t="s">
+        <v>28</v>
+      </c>
+      <c r="T26" t="s">
+        <v>14</v>
+      </c>
+      <c r="U26" t="s">
+        <v>15</v>
+      </c>
+      <c r="V26" t="s">
+        <v>18</v>
+      </c>
+      <c r="W26" t="s">
+        <v>28</v>
+      </c>
+      <c r="X26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="A27" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B27" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
-      <c r="A10" s="1" t="s">
+      <c r="D27" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" t="s">
+        <v>47</v>
+      </c>
+      <c r="M27" t="s">
+        <v>28</v>
+      </c>
+      <c r="N27" t="s">
+        <v>14</v>
+      </c>
+      <c r="O27" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>28</v>
+      </c>
+      <c r="R27" t="s">
+        <v>14</v>
+      </c>
+      <c r="S27" t="s">
+        <v>28</v>
+      </c>
+      <c r="T27" t="s">
+        <v>14</v>
+      </c>
+      <c r="U27" t="s">
+        <v>28</v>
+      </c>
+      <c r="V27" t="s">
+        <v>18</v>
+      </c>
+      <c r="W27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B28" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
-      <c r="A11" s="1" t="s">
+      <c r="D28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" t="s">
+        <v>47</v>
+      </c>
+      <c r="M28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N28" t="s">
+        <v>14</v>
+      </c>
+      <c r="O28" t="s">
+        <v>28</v>
+      </c>
+      <c r="P28" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>28</v>
+      </c>
+      <c r="R28" t="s">
+        <v>14</v>
+      </c>
+      <c r="S28" t="s">
+        <v>28</v>
+      </c>
+      <c r="T28" t="s">
+        <v>14</v>
+      </c>
+      <c r="U28" t="s">
+        <v>28</v>
+      </c>
+      <c r="V28" t="s">
+        <v>18</v>
+      </c>
+      <c r="W28" t="s">
+        <v>28</v>
+      </c>
+      <c r="X28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="A29" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B29" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24">
-      <c r="A12" s="1" t="s">
+      <c r="D29" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" t="s">
+        <v>28</v>
+      </c>
+      <c r="K29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" t="s">
+        <v>47</v>
+      </c>
+      <c r="M29" t="s">
+        <v>28</v>
+      </c>
+      <c r="N29" t="s">
+        <v>14</v>
+      </c>
+      <c r="O29" t="s">
+        <v>28</v>
+      </c>
+      <c r="P29" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>28</v>
+      </c>
+      <c r="R29" t="s">
+        <v>14</v>
+      </c>
+      <c r="S29" t="s">
+        <v>28</v>
+      </c>
+      <c r="T29" t="s">
+        <v>14</v>
+      </c>
+      <c r="U29" t="s">
+        <v>28</v>
+      </c>
+      <c r="V29" t="s">
+        <v>18</v>
+      </c>
+      <c r="W29" t="s">
+        <v>28</v>
+      </c>
+      <c r="X29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B30" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
-      <c r="A13" s="1" t="s">
+      <c r="D30" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" t="s">
+        <v>47</v>
+      </c>
+      <c r="M30" t="s">
+        <v>28</v>
+      </c>
+      <c r="N30" t="s">
+        <v>14</v>
+      </c>
+      <c r="O30" t="s">
+        <v>28</v>
+      </c>
+      <c r="P30" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>28</v>
+      </c>
+      <c r="R30" t="s">
+        <v>14</v>
+      </c>
+      <c r="S30" t="s">
+        <v>28</v>
+      </c>
+      <c r="T30" t="s">
+        <v>14</v>
+      </c>
+      <c r="U30" t="s">
+        <v>28</v>
+      </c>
+      <c r="V30" t="s">
+        <v>18</v>
+      </c>
+      <c r="W30" t="s">
+        <v>28</v>
+      </c>
+      <c r="X30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B31" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="D31" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
-      <c r="A16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X17" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24">
-      <c r="A18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="X18" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X19" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X20" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X21" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24">
-      <c r="A22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X22" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24">
-      <c r="A23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X23" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24">
-      <c r="A24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X24" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24">
-      <c r="A25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X25" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24">
-      <c r="A26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="V26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X26" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24">
-      <c r="A27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X27" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24">
-      <c r="A28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X28" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24">
-      <c r="A29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X29" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24">
-      <c r="A30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X30" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24">
-      <c r="A31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X31" s="1" t="s">
+      <c r="J31" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" t="s">
+        <v>47</v>
+      </c>
+      <c r="M31" t="s">
+        <v>28</v>
+      </c>
+      <c r="N31" t="s">
+        <v>14</v>
+      </c>
+      <c r="O31" t="s">
+        <v>28</v>
+      </c>
+      <c r="P31" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>28</v>
+      </c>
+      <c r="R31" t="s">
+        <v>14</v>
+      </c>
+      <c r="S31" t="s">
+        <v>28</v>
+      </c>
+      <c r="T31" t="s">
+        <v>14</v>
+      </c>
+      <c r="U31" t="s">
+        <v>28</v>
+      </c>
+      <c r="V31" t="s">
+        <v>18</v>
+      </c>
+      <c r="W31" t="s">
+        <v>28</v>
+      </c>
+      <c r="X31" t="s">
         <v>15</v>
       </c>
     </row>
@@ -15360,10 +15314,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O78"/>
+  <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:AX1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -15374,7 +15328,6 @@
     <col min="5" max="6" width="9.5703125" style="1" customWidth="1"/>
     <col min="7" max="11" width="10.5703125" style="1" customWidth="1"/>
     <col min="12" max="14" width="9.5703125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -15982,9 +15935,6 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B15" s="1" t="s">
         <v>122</v>
       </c>
@@ -16026,9 +15976,6 @@
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B16" s="1" t="s">
         <v>122</v>
       </c>
@@ -16070,9 +16017,6 @@
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B17" s="1" t="s">
         <v>122</v>
       </c>
@@ -16114,9 +16058,6 @@
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B18" s="1" t="s">
         <v>122</v>
       </c>
@@ -16158,9 +16099,6 @@
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B19" s="1" t="s">
         <v>122</v>
       </c>
@@ -16202,9 +16140,6 @@
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B20" s="1" t="s">
         <v>122</v>
       </c>
@@ -16246,9 +16181,6 @@
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B21" s="1" t="s">
         <v>122</v>
       </c>
@@ -16328,9 +16260,6 @@
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B23" s="1" t="s">
         <v>122</v>
       </c>
@@ -16369,9 +16298,6 @@
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B24" s="1" t="s">
         <v>122</v>
       </c>
@@ -16448,9 +16374,6 @@
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B26" s="1" t="s">
         <v>122</v>
       </c>
@@ -16911,9 +16834,6 @@
       </c>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B37" s="1" t="s">
         <v>122</v>
       </c>
@@ -16952,9 +16872,6 @@
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B38" s="1" t="s">
         <v>122</v>
       </c>
@@ -18673,25 +18590,25 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO65"/>
+  <dimension ref="A1:AN65"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AO1" sqref="AO1:BS1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.85546875" style="1" customWidth="1"/>
-    <col min="7" max="10" width="9.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" style="1" customWidth="1"/>
-    <col min="12" max="13" width="9.85546875" style="1" customWidth="1"/>
-    <col min="14" max="32" width="10.85546875" style="1" customWidth="1"/>
-    <col min="33" max="34" width="9.85546875" style="1" customWidth="1"/>
-    <col min="35" max="35" width="10.85546875" style="1" customWidth="1"/>
-    <col min="36" max="40" width="9.85546875" style="1" customWidth="1"/>
-    <col min="41" max="41" width="5.5703125" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="14.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.5703125" style="1" customWidth="1"/>
+    <col min="7" max="10" width="9.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="1" customWidth="1"/>
+    <col min="12" max="13" width="9.5703125" style="1" customWidth="1"/>
+    <col min="14" max="32" width="10.5703125" style="1" customWidth="1"/>
+    <col min="33" max="34" width="9.5703125" style="1" customWidth="1"/>
+    <col min="35" max="35" width="10.5703125" style="1" customWidth="1"/>
+    <col min="36" max="40" width="9.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
@@ -19299,7 +19216,7 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -20519,7 +20436,7 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -20879,9 +20796,6 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B19" s="1" t="s">
         <v>217</v>
       </c>
@@ -20998,7 +20912,7 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -21117,9 +21031,6 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="B21" s="1" t="s">
         <v>217</v>
       </c>
@@ -21361,7 +21272,7 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -21483,7 +21394,7 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -21605,9 +21516,6 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="B25" s="1" t="s">
         <v>217</v>
       </c>
@@ -22090,6 +21998,9 @@
       </c>
     </row>
     <row r="29" spans="1:40">
+      <c r="A29" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B29" s="1" t="s">
         <v>217</v>
       </c>
@@ -22935,9 +22846,6 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B36" s="1" t="s">
         <v>217</v>
       </c>
@@ -23054,9 +22962,6 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B37" s="1" t="s">
         <v>217</v>
       </c>
@@ -23173,7 +23078,7 @@
       </c>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -23411,9 +23316,6 @@
       </c>
     </row>
     <row r="40" spans="1:40">
-      <c r="A40" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B40" s="1" t="s">
         <v>217</v>
       </c>
@@ -23655,9 +23557,6 @@
       </c>
     </row>
     <row r="42" spans="1:40">
-      <c r="A42" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B42" s="1" t="s">
         <v>217</v>
       </c>
@@ -24375,9 +24274,6 @@
       </c>
     </row>
     <row r="48" spans="1:40">
-      <c r="A48" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B48" s="1" t="s">
         <v>217</v>
       </c>
@@ -26050,6 +25946,9 @@
       </c>
     </row>
     <row r="62" spans="1:40">
+      <c r="A62" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B62" s="1" t="s">
         <v>217</v>
       </c>
@@ -26285,7 +26184,7 @@
       </c>
     </row>
     <row r="64" spans="1:40">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -26522,15 +26421,16 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y35"/>
+  <dimension ref="A1:X35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:BD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -26542,7 +26442,6 @@
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="20" width="10.5703125" style="1" customWidth="1"/>
     <col min="21" max="24" width="9.5703125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -26756,9 +26655,6 @@
       </c>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B4" s="1" t="s">
         <v>267</v>
       </c>
@@ -26898,9 +26794,6 @@
       </c>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B6" s="1" t="s">
         <v>267</v>
       </c>
@@ -26969,9 +26862,6 @@
       </c>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B7" s="1" t="s">
         <v>267</v>
       </c>
@@ -27040,9 +26930,6 @@
       </c>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B8" s="1" t="s">
         <v>267</v>
       </c>
@@ -27111,9 +26998,6 @@
       </c>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B9" s="1" t="s">
         <v>267</v>
       </c>
@@ -27182,9 +27066,6 @@
       </c>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B10" s="1" t="s">
         <v>267</v>
       </c>
@@ -27253,9 +27134,6 @@
       </c>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B11" s="1" t="s">
         <v>267</v>
       </c>
@@ -27324,9 +27202,6 @@
       </c>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B12" s="1" t="s">
         <v>267</v>
       </c>
@@ -27395,9 +27270,6 @@
       </c>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B13" s="1" t="s">
         <v>267</v>
       </c>
@@ -27466,9 +27338,6 @@
       </c>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B14" s="1" t="s">
         <v>267</v>
       </c>
@@ -27537,9 +27406,6 @@
       </c>
     </row>
     <row r="15" spans="1:24">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B15" s="1" t="s">
         <v>267</v>
       </c>
@@ -27608,9 +27474,6 @@
       </c>
     </row>
     <row r="16" spans="1:24">
-      <c r="A16" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B16" s="1" t="s">
         <v>267</v>
       </c>
@@ -27679,9 +27542,6 @@
       </c>
     </row>
     <row r="17" spans="1:24">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B17" s="1" t="s">
         <v>267</v>
       </c>
@@ -28318,9 +28178,6 @@
       </c>
     </row>
     <row r="26" spans="1:24">
-      <c r="A26" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B26" s="1" t="s">
         <v>267</v>
       </c>
@@ -28886,9 +28743,6 @@
       </c>
     </row>
     <row r="34" spans="1:24">
-      <c r="A34" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B34" s="1" t="s">
         <v>267</v>
       </c>
@@ -28957,9 +28811,6 @@
       </c>
     </row>
     <row r="35" spans="1:24">
-      <c r="A35" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B35" s="1" t="s">
         <v>267</v>
       </c>
@@ -29035,10 +28886,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP35"/>
+  <dimension ref="A1:AO35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AP1" sqref="AP1:BR1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -29056,7 +28907,6 @@
     <col min="36" max="37" width="9.5703125" style="1" customWidth="1"/>
     <col min="38" max="39" width="10.5703125" style="1" customWidth="1"/>
     <col min="40" max="41" width="9.5703125" style="1" customWidth="1"/>
-    <col min="42" max="42" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41">
@@ -30173,9 +30023,6 @@
       </c>
     </row>
     <row r="10" spans="1:41">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B10" s="1" t="s">
         <v>311</v>
       </c>
@@ -30423,9 +30270,6 @@
       </c>
     </row>
     <row r="12" spans="1:41">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B12" s="1" t="s">
         <v>311</v>
       </c>
@@ -30673,9 +30517,6 @@
       </c>
     </row>
     <row r="14" spans="1:41">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B14" s="1" t="s">
         <v>311</v>
       </c>
@@ -31042,9 +30883,6 @@
       </c>
     </row>
     <row r="17" spans="1:41">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B17" s="1" t="s">
         <v>311</v>
       </c>
@@ -31164,9 +31002,6 @@
       </c>
     </row>
     <row r="18" spans="1:41">
-      <c r="A18" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B18" s="1" t="s">
         <v>311</v>
       </c>
@@ -31405,9 +31240,6 @@
       </c>
     </row>
     <row r="20" spans="1:41">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B20" s="1" t="s">
         <v>311</v>
       </c>
@@ -31527,9 +31359,6 @@
       </c>
     </row>
     <row r="21" spans="1:41">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B21" s="1" t="s">
         <v>311</v>
       </c>
@@ -31649,9 +31478,6 @@
       </c>
     </row>
     <row r="22" spans="1:41">
-      <c r="A22" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B22" s="1" t="s">
         <v>311</v>
       </c>
@@ -31771,9 +31597,6 @@
       </c>
     </row>
     <row r="23" spans="1:41">
-      <c r="A23" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B23" s="1" t="s">
         <v>311</v>
       </c>
@@ -31893,9 +31716,6 @@
       </c>
     </row>
     <row r="24" spans="1:41">
-      <c r="A24" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B24" s="1" t="s">
         <v>311</v>
       </c>
@@ -32015,9 +31835,6 @@
       </c>
     </row>
     <row r="25" spans="1:41">
-      <c r="A25" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B25" s="1" t="s">
         <v>311</v>
       </c>
@@ -32256,9 +32073,6 @@
       </c>
     </row>
     <row r="27" spans="1:41">
-      <c r="A27" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B27" s="1" t="s">
         <v>311</v>
       </c>
@@ -32497,9 +32311,6 @@
       </c>
     </row>
     <row r="29" spans="1:41">
-      <c r="A29" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B29" s="1" t="s">
         <v>311</v>
       </c>
@@ -32978,7 +32789,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:41">
+    <row r="33" spans="2:41">
       <c r="B33" s="1" t="s">
         <v>311</v>
       </c>
@@ -33097,10 +32908,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:41">
-      <c r="A34" s="1" t="s">
-        <v>19</v>
-      </c>
+    <row r="34" spans="2:41">
       <c r="B34" s="1" t="s">
         <v>311</v>
       </c>
@@ -33219,10 +33027,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:41">
-      <c r="A35" s="1" t="s">
-        <v>19</v>
-      </c>
+    <row r="35" spans="2:41">
       <c r="B35" s="1" t="s">
         <v>311</v>
       </c>
